--- a/data/pitcher_data/2021/adrianza_ehire.xlsx
+++ b/data/pitcher_data/2021/adrianza_ehire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:DJ1"/>
+  <dimension ref="B1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,567 +436,97 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>pitch_type</t>
+          <t>game_date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>game_date</t>
+          <t>events</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>release_speed</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>release_pos_x</t>
+          <t>zone</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>release_pos_z</t>
+          <t>des</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>player_name</t>
+          <t>type</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>batter</t>
+          <t>hit_location</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>pitcher</t>
+          <t>bb_type</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>events</t>
+          <t>balls</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>strikes</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>spin_dir</t>
+          <t>on_3b</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>spin_rate_deprecated</t>
+          <t>on_2b</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>break_angle_deprecated</t>
+          <t>on_1b</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>break_length_deprecated</t>
+          <t>outs_when_up</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>zone</t>
+          <t>inning</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>des</t>
+          <t>at_bat_number</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>game_type</t>
+          <t>pitch_number</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>stand</t>
+          <t>home_score</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>p_throws</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>home_team</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>away_team</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>hit_location</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>bb_type</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>balls</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>strikes</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>game_year</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>pfx_x</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>pfx_z</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>plate_x</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>plate_z</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>on_3b</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>on_2b</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>on_1b</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>outs_when_up</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>inning</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>inning_topbot</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>hc_x</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>hc_y</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>tfs_deprecated</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>tfs_zulu_deprecated</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>umpire</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>sv_id</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>vx0</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>vy0</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>vz0</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>ax</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>ay</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>az</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>sz_top</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>sz_bot</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>hit_distance_sc</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>launch_speed</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>launch_angle</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>effective_speed</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>release_spin_rate</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>release_extension</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>game_pk</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>fielder_2</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>fielder_3</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>fielder_4</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>fielder_5</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>fielder_6</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>fielder_7</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>fielder_8</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>fielder_9</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>release_pos_y</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>estimated_ba_using_speedangle</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>estimated_woba_using_speedangle</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>woba_value</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>woba_denom</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>babip_value</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>iso_value</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>launch_speed_angle</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>at_bat_number</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>pitch_number</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>pitch_name</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>home_score</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
           <t>away_score</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>bat_score</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>fld_score</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>post_away_score</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>post_home_score</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>post_bat_score</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>post_fld_score</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>if_fielding_alignment</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>of_fielding_alignment</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>spin_axis</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>delta_home_win_exp</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>delta_run_exp</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>bat_speed</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>swing_length</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>estimated_slg_using_speedangle</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>delta_pitcher_run_exp</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>hyper_speed</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>home_score_diff</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>bat_score_diff</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>home_win_exp</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>bat_win_exp</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>age_pit_legacy</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>age_bat_legacy</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>age_pit</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>age_bat</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>n_thruorder_pitcher</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>n_priorpa_thisgame_player_at_bat</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>pitcher_days_since_prev_game</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>batter_days_since_prev_game</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>pitcher_days_until_next_game</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>batter_days_until_next_game</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>api_break_z_with_gravity</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>api_break_x_arm</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>api_break_x_batter_in</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>arm_angle</t>
         </is>
       </c>
     </row>

--- a/data/pitcher_data/2021/adrianza_ehire.xlsx
+++ b/data/pitcher_data/2021/adrianza_ehire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:T1"/>
+  <dimension ref="B1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,20 +511,25 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>inning_topbot</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>at_bat_number</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>pitch_number</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>home_score</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>away_score</t>
         </is>
